--- a/result.xlsx
+++ b/result.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,7 +439,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>完成数量</t>
+          <t>总人数</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>完成率</t>
         </is>
       </c>
     </row>
@@ -452,6 +462,14 @@
       <c r="B2" t="n">
         <v>33</v>
       </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -462,6 +480,14 @@
       <c r="B3" t="n">
         <v>33</v>
       </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6.06%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -472,6 +498,14 @@
       <c r="B4" t="n">
         <v>20</v>
       </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -482,6 +516,14 @@
       <c r="B5" t="n">
         <v>28</v>
       </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>14.29%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -492,6 +534,14 @@
       <c r="B6" t="n">
         <v>33</v>
       </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>9.09%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -502,6 +552,14 @@
       <c r="B7" t="n">
         <v>33</v>
       </c>
+      <c r="C7" t="n">
+        <v>9</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.27%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -512,6 +570,14 @@
       <c r="B8" t="n">
         <v>32</v>
       </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.12%</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -522,6 +588,14 @@
       <c r="B9" t="n">
         <v>33</v>
       </c>
+      <c r="C9" t="n">
+        <v>13</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>39.39%</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -532,6 +606,14 @@
       <c r="B10" t="n">
         <v>33</v>
       </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>15.15%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -542,6 +624,14 @@
       <c r="B11" t="n">
         <v>33</v>
       </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.12%</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -552,6 +642,14 @@
       <c r="B12" t="n">
         <v>33</v>
       </c>
+      <c r="C12" t="n">
+        <v>8</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>24.24%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -562,6 +660,14 @@
       <c r="B13" t="n">
         <v>32</v>
       </c>
+      <c r="C13" t="n">
+        <v>4</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.50%</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -572,6 +678,14 @@
       <c r="B14" t="n">
         <v>33</v>
       </c>
+      <c r="C14" t="n">
+        <v>5</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.15%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -581,6 +695,32 @@
       </c>
       <c r="B15" t="n">
         <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>6</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>18.75%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>汇总</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>441</v>
+      </c>
+      <c r="C16" t="n">
+        <v>74</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.78%</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -594,7 +734,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -610,7 +750,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>完成数量</t>
+          <t>总人数</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>完成率</t>
         </is>
       </c>
     </row>
@@ -623,6 +773,14 @@
       <c r="B2" t="n">
         <v>44</v>
       </c>
+      <c r="C2" t="n">
+        <v>24</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>54.55%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -632,6 +790,32 @@
       </c>
       <c r="B3" t="n">
         <v>40</v>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>汇总</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>84</v>
+      </c>
+      <c r="C4" t="n">
+        <v>49</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>58.33%</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -645,7 +829,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,7 +845,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>完成数量</t>
+          <t>总人数</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>完成率</t>
         </is>
       </c>
     </row>
@@ -674,6 +868,14 @@
       <c r="B2" t="n">
         <v>1</v>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -684,6 +886,14 @@
       <c r="B3" t="n">
         <v>3</v>
       </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>33.33%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -694,6 +904,14 @@
       <c r="B4" t="n">
         <v>9</v>
       </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.22%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -704,6 +922,14 @@
       <c r="B5" t="n">
         <v>7</v>
       </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -714,6 +940,14 @@
       <c r="B6" t="n">
         <v>8</v>
       </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -723,6 +957,32 @@
       </c>
       <c r="B7" t="n">
         <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>6</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>汇总</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>43</v>
+      </c>
+      <c r="C8" t="n">
+        <v>9</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>20.93%</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -736,7 +996,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,7 +1012,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>完成数量</t>
+          <t>总人数</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>完成率</t>
         </is>
       </c>
     </row>
@@ -765,6 +1035,14 @@
       <c r="B2" t="n">
         <v>33</v>
       </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>24.24%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -775,6 +1053,14 @@
       <c r="B3" t="n">
         <v>33</v>
       </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>42.42%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -785,6 +1071,14 @@
       <c r="B4" t="n">
         <v>33</v>
       </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>51.52%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -795,6 +1089,14 @@
       <c r="B5" t="n">
         <v>36</v>
       </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>75.00%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -805,6 +1107,14 @@
       <c r="B6" t="n">
         <v>35</v>
       </c>
+      <c r="C6" t="n">
+        <v>33</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>94.29%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -815,6 +1125,14 @@
       <c r="B7" t="n">
         <v>35</v>
       </c>
+      <c r="C7" t="n">
+        <v>16</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>45.71%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -825,6 +1143,14 @@
       <c r="B8" t="n">
         <v>32</v>
       </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>31.25%</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -835,6 +1161,14 @@
       <c r="B9" t="n">
         <v>29</v>
       </c>
+      <c r="C9" t="n">
+        <v>24</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>82.76%</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -845,6 +1179,14 @@
       <c r="B10" t="n">
         <v>30</v>
       </c>
+      <c r="C10" t="n">
+        <v>25</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>83.33%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -855,6 +1197,14 @@
       <c r="B11" t="n">
         <v>33</v>
       </c>
+      <c r="C11" t="n">
+        <v>25</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>75.76%</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -865,6 +1215,14 @@
       <c r="B12" t="n">
         <v>30</v>
       </c>
+      <c r="C12" t="n">
+        <v>15</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>50.00%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -875,6 +1233,14 @@
       <c r="B13" t="n">
         <v>31</v>
       </c>
+      <c r="C13" t="n">
+        <v>8</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.81%</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -885,6 +1251,14 @@
       <c r="B14" t="n">
         <v>32</v>
       </c>
+      <c r="C14" t="n">
+        <v>24</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>75.00%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -895,6 +1269,14 @@
       <c r="B15" t="n">
         <v>32</v>
       </c>
+      <c r="C15" t="n">
+        <v>18</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>56.25%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -904,6 +1286,32 @@
       </c>
       <c r="B16" t="n">
         <v>29</v>
+      </c>
+      <c r="C16" t="n">
+        <v>19</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>65.52%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>汇总</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>483</v>
+      </c>
+      <c r="C17" t="n">
+        <v>283</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>58.59%</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -917,7 +1325,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -933,7 +1341,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>完成数量</t>
+          <t>总人数</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>完成率</t>
         </is>
       </c>
     </row>
@@ -946,6 +1364,14 @@
       <c r="B2" t="n">
         <v>30</v>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>00.00%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -956,6 +1382,14 @@
       <c r="B3" t="n">
         <v>32</v>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00.00%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -966,6 +1400,14 @@
       <c r="B4" t="n">
         <v>32</v>
       </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.38%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -976,6 +1418,14 @@
       <c r="B5" t="n">
         <v>33</v>
       </c>
+      <c r="C5" t="n">
+        <v>32</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>96.97%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -986,6 +1436,14 @@
       <c r="B6" t="n">
         <v>32</v>
       </c>
+      <c r="C6" t="n">
+        <v>12</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37.50%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -996,6 +1454,14 @@
       <c r="B7" t="n">
         <v>33</v>
       </c>
+      <c r="C7" t="n">
+        <v>32</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>96.97%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1006,6 +1472,14 @@
       <c r="B8" t="n">
         <v>33</v>
       </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>96.97%</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1016,6 +1490,14 @@
       <c r="B9" t="n">
         <v>33</v>
       </c>
+      <c r="C9" t="n">
+        <v>31</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>93.94%</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1026,6 +1508,14 @@
       <c r="B10" t="n">
         <v>32</v>
       </c>
+      <c r="C10" t="n">
+        <v>31</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>96.88%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1036,6 +1526,14 @@
       <c r="B11" t="n">
         <v>35</v>
       </c>
+      <c r="C11" t="n">
+        <v>33</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>94.29%</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1046,6 +1544,14 @@
       <c r="B12" t="n">
         <v>34</v>
       </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>00.00%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1056,6 +1562,14 @@
       <c r="B13" t="n">
         <v>31</v>
       </c>
+      <c r="C13" t="n">
+        <v>22</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>70.97%</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1066,6 +1580,14 @@
       <c r="B14" t="n">
         <v>28</v>
       </c>
+      <c r="C14" t="n">
+        <v>26</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>92.86%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1076,6 +1598,14 @@
       <c r="B15" t="n">
         <v>30</v>
       </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>00.00%</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1085,6 +1615,32 @@
       </c>
       <c r="B16" t="n">
         <v>28</v>
+      </c>
+      <c r="C16" t="n">
+        <v>27</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>96.43%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>汇总</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>476</v>
+      </c>
+      <c r="C17" t="n">
+        <v>281</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>59.03%</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1098,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1114,7 +1670,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>完成数量</t>
+          <t>总人数</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>完成率</t>
         </is>
       </c>
     </row>
@@ -1127,6 +1693,14 @@
       <c r="B2" t="n">
         <v>31</v>
       </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>00.00%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1137,6 +1711,14 @@
       <c r="B3" t="n">
         <v>31</v>
       </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>00.00%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1147,6 +1729,14 @@
       <c r="B4" t="n">
         <v>30</v>
       </c>
+      <c r="C4" t="n">
+        <v>28</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.33%</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1157,6 +1747,14 @@
       <c r="B5" t="n">
         <v>30</v>
       </c>
+      <c r="C5" t="n">
+        <v>26</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>86.67%</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1167,6 +1765,14 @@
       <c r="B6" t="n">
         <v>30</v>
       </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>60.00%</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -1177,6 +1783,14 @@
       <c r="B7" t="n">
         <v>30</v>
       </c>
+      <c r="C7" t="n">
+        <v>26</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>86.67%</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -1187,6 +1801,14 @@
       <c r="B8" t="n">
         <v>28</v>
       </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>00.00%</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -1197,6 +1819,14 @@
       <c r="B9" t="n">
         <v>30</v>
       </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>00.00%</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -1207,6 +1837,14 @@
       <c r="B10" t="n">
         <v>30</v>
       </c>
+      <c r="C10" t="n">
+        <v>12</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>40.00%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -1217,6 +1855,14 @@
       <c r="B11" t="n">
         <v>28</v>
       </c>
+      <c r="C11" t="n">
+        <v>24</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>85.71%</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -1227,6 +1873,14 @@
       <c r="B12" t="n">
         <v>28</v>
       </c>
+      <c r="C12" t="n">
+        <v>27</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>96.43%</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -1237,6 +1891,14 @@
       <c r="B13" t="n">
         <v>29</v>
       </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>00.00%</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1247,6 +1909,14 @@
       <c r="B14" t="n">
         <v>29</v>
       </c>
+      <c r="C14" t="n">
+        <v>22</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>75.86%</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1256,6 +1926,32 @@
       </c>
       <c r="B15" t="n">
         <v>30</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>00.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>汇总</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>414</v>
+      </c>
+      <c r="C16" t="n">
+        <v>183</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>44.20%</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1269,7 +1965,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1285,7 +1981,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>完成数量</t>
+          <t>总人数</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>完成率</t>
         </is>
       </c>
     </row>
@@ -1297,6 +2003,32 @@
       </c>
       <c r="B2" t="n">
         <v>46</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>00.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>汇总</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>46</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1326,7 +2058,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>完成数量</t>
+          <t>总人数</t>
         </is>
       </c>
     </row>
@@ -1351,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1367,7 +2099,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>完成数量</t>
+          <t>总人数</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>完成率</t>
         </is>
       </c>
     </row>
@@ -1380,6 +2122,14 @@
       <c r="B2" t="n">
         <v>37</v>
       </c>
+      <c r="C2" t="n">
+        <v>10</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.03%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1390,6 +2140,14 @@
       <c r="B3" t="n">
         <v>11</v>
       </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>18.18%</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1399,6 +2157,32 @@
       </c>
       <c r="B4" t="n">
         <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.00%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>汇总</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>49</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>24.49%</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1412,7 +2196,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1428,7 +2212,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>完成数量</t>
+          <t>总人数</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>完成率</t>
         </is>
       </c>
     </row>
@@ -1441,6 +2235,14 @@
       <c r="B2" t="n">
         <v>39</v>
       </c>
+      <c r="C2" t="n">
+        <v>16</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>41.03%</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1450,6 +2252,32 @@
       </c>
       <c r="B3" t="n">
         <v>36</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>汇总</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>75</v>
+      </c>
+      <c r="C4" t="n">
+        <v>17</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.67%</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +2291,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1479,7 +2307,17 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>完成数量</t>
+          <t>总人数</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>已完成</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>完成率</t>
         </is>
       </c>
     </row>
@@ -1491,6 +2329,32 @@
       </c>
       <c r="B2" t="n">
         <v>48</v>
+      </c>
+      <c r="C2" t="n">
+        <v>39</v>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>81.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>汇总</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>48</v>
+      </c>
+      <c r="C3" t="n">
+        <v>39</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>81.25%</t>
+        </is>
       </c>
     </row>
   </sheetData>
